--- a/Story/Data_collection.xlsx
+++ b/Story/Data_collection.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a610811396ca0832/Dokumente/MCP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a610811396ca0832/Dokumente/GitHub/manasoup_communitygame/Story/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{246FBE52-69BC-4066-9961-4D2B24F5F071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B453935-F9BD-439D-A20B-23F9073F4730}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{246FBE52-69BC-4066-9961-4D2B24F5F071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C82596A-86E6-433A-80EB-35ACA20445E3}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{7B21C248-6D26-455B-A06D-0EA5E2B68E05}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{7B21C248-6D26-455B-A06D-0EA5E2B68E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Quotes" sheetId="1" r:id="rId1"/>
     <sheet name="Charakter" sheetId="4" r:id="rId2"/>
     <sheet name="Divers" sheetId="2" r:id="rId3"/>
+    <sheet name="Community" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>'Andi, wenn man dir eine Krone unters Auge tätowiert, siehst du aus wie MontanaBlack"</t>
   </si>
@@ -164,6 +165,30 @@
   </si>
   <si>
     <t>Subgift zum Blocken von Attacken</t>
+  </si>
+  <si>
+    <t>Plotttwist: Traum von Bobo während Narkose</t>
+  </si>
+  <si>
+    <t>Introvideo: Gunny begibt sich auf die Suche mit Hinweis für HC</t>
+  </si>
+  <si>
+    <t>Wow! Ich habe noch nie einen 1 Meter Meterstab gesehen! Den kann ich bestimmt gebrauchen!</t>
+  </si>
+  <si>
+    <t>20AM</t>
+  </si>
+  <si>
+    <t>Zefix</t>
+  </si>
+  <si>
+    <t>Kotfresse</t>
+  </si>
+  <si>
+    <t>Deine Mutter schiebt Rammen durch Saudi Arabien</t>
+  </si>
+  <si>
+    <t>Man muss ihm ausweichen (Häufchen Emoji)</t>
   </si>
 </sst>
 </file>
@@ -528,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7629C0-39EF-462A-BECD-F71A7F6297F8}">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,6 +705,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -691,7 +721,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,44 +791,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87509E-5FB2-4588-AB4C-58AAA130D4B8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DC483-53B4-4740-9C38-8DE8701E9245}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Story/Data_collection.xlsx
+++ b/Story/Data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a610811396ca0832/Dokumente/GitHub/manasoup_communitygame/Story/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{246FBE52-69BC-4066-9961-4D2B24F5F071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C82596A-86E6-433A-80EB-35ACA20445E3}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{246FBE52-69BC-4066-9961-4D2B24F5F071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE729FBB-EC5E-4826-B1AE-34DE80D49A65}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{7B21C248-6D26-455B-A06D-0EA5E2B68E05}"/>
+    <workbookView minimized="1" xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{7B21C248-6D26-455B-A06D-0EA5E2B68E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Quotes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>'Andi, wenn man dir eine Krone unters Auge tätowiert, siehst du aus wie MontanaBlack"</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Man muss ihm ausweichen (Häufchen Emoji)</t>
+  </si>
+  <si>
+    <t>Manasoup Schriftart - Kelson Sans</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7629C0-39EF-462A-BECD-F71A7F6297F8}">
   <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87509E-5FB2-4588-AB4C-58AAA130D4B8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,6 +838,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Story/Data_collection.xlsx
+++ b/Story/Data_collection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a610811396ca0832/Dokumente/GitHub/manasoup_communitygame/Story/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadja\OneDrive\Dokumente\GitHub\manasoup_communitygame\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{246FBE52-69BC-4066-9961-4D2B24F5F071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE729FBB-EC5E-4826-B1AE-34DE80D49A65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EBD40F-3505-41A2-972D-BB3BED13D6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{7B21C248-6D26-455B-A06D-0EA5E2B68E05}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="19200" windowHeight="10500" xr2:uid="{7B21C248-6D26-455B-A06D-0EA5E2B68E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Quotes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>'Andi, wenn man dir eine Krone unters Auge tätowiert, siehst du aus wie MontanaBlack"</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>Manasoup Schriftart - Kelson Sans</t>
+  </si>
+  <si>
+    <t>Irgendwas das klingt wie eine Harley, hat Flügel und fliegt durch mein Zimmer</t>
+  </si>
+  <si>
+    <t>Um Bobo 3D zu scannen brauchst du eine Turnhalle</t>
+  </si>
+  <si>
+    <t>Ich will die Turnhalle kaufen. 50€, das passt dann so.</t>
+  </si>
+  <si>
+    <t>Buchtitel: Wie Manasoup mir die Liebe erklärte. - Also ein Fantasy Roman?</t>
+  </si>
+  <si>
+    <t>Die Zuschauer sind egal!</t>
   </si>
 </sst>
 </file>
@@ -556,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7629C0-39EF-462A-BECD-F71A7F6297F8}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A2:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,7 +702,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -695,12 +710,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -708,9 +723,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44004</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87509E-5FB2-4588-AB4C-58AAA130D4B8}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
